--- a/Parameters&Summary.xlsx
+++ b/Parameters&Summary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\TEG-NAS\TEG_Home\H_drive_copy\My Papers\PBI Optimization 2025\Figures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\000My Papers\PBI Optimization 2025\Figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1516A4-5DE4-4C46-B443-B4F4BCD0D792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7E3AD8-1AD7-41FC-B6C6-9010407B1A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15180" yWindow="2070" windowWidth="36450" windowHeight="27660" xr2:uid="{7D6FEA02-49A5-4E45-A1B8-67DB04D8BBEF}"/>
+    <workbookView xWindow="8895" yWindow="420" windowWidth="45315" windowHeight="30690" activeTab="1" xr2:uid="{7D6FEA02-49A5-4E45-A1B8-67DB04D8BBEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -1461,7 +1461,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1537,32 +1537,22 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1738,15 +1728,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>342900</xdr:colOff>
+          <xdr:colOff>400050</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>2057400</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>447675</xdr:rowOff>
+          <xdr:colOff>2114550</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1792,7 +1782,7 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>514349</xdr:colOff>
+          <xdr:colOff>514350</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
@@ -1800,7 +1790,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>2476500</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>400812</xdr:rowOff>
+          <xdr:rowOff>400050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1846,15 +1836,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>361950</xdr:colOff>
+          <xdr:colOff>361949</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>2076450</xdr:colOff>
+          <xdr:colOff>2372052</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>361950</xdr:rowOff>
+          <xdr:rowOff>409575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2433,7 +2423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9099A9AC-61F7-4040-B746-9600AD45AC4C}">
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
@@ -2464,10 +2454,10 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="28"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="2"/>
       <c r="F2" s="19" t="s">
         <v>24</v>
       </c>
@@ -2479,11 +2469,11 @@
       <c r="L2" s="21"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="28"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="1"/>
     </row>
@@ -2780,7 +2770,7 @@
       <c r="H10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="O10" s="34"/>
+      <c r="O10" s="30"/>
       <c r="Q10" s="27"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -2969,11 +2959,11 @@
       <c r="O18" s="2"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="1"/>
       <c r="H19" s="2"/>
@@ -2986,11 +2976,11 @@
       <c r="O19" s="2"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="28"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="1"/>
       <c r="H20" s="2"/>
@@ -3003,11 +2993,11 @@
       <c r="O20" s="2"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="1"/>
       <c r="H21" s="2"/>
@@ -3020,11 +3010,11 @@
       <c r="O21" s="2"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="28"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="1"/>
       <c r="H22" s="2"/>
@@ -3037,11 +3027,11 @@
       <c r="O22" s="2"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="28"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="1"/>
       <c r="H23" s="2"/>
@@ -3055,10 +3045,10 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="27"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="28"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="1"/>
       <c r="H24" s="2"/>
@@ -3071,11 +3061,7 @@
       <c r="O24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="28"/>
+      <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="1"/>
       <c r="H25" s="2"/>
@@ -3122,8 +3108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{700C5898-20BD-4129-8132-762F4A722D67}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3141,12 +3127,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="31"/>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="2" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
@@ -3156,9 +3141,6 @@
       <c r="C2" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
@@ -3168,9 +3150,6 @@
       <c r="C3" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
@@ -3331,15 +3310,15 @@
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>342900</xdr:colOff>
+                <xdr:colOff>400050</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:rowOff>66675</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>2057400</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>447675</xdr:rowOff>
+                <xdr:colOff>2114550</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -3387,9 +3366,9 @@
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>2076450</xdr:colOff>
+                <xdr:colOff>2371725</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>361950</xdr:rowOff>
+                <xdr:rowOff>409575</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
